--- a/biology/Zoologie/Catostomus_discobolus/Catostomus_discobolus.xlsx
+++ b/biology/Zoologie/Catostomus_discobolus/Catostomus_discobolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catostomus discobolus est une espèce de poissons Cypriniformes présente dans la partie occidentale des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catostomus discobolus est un poisson d'environ 40 centimètres. Le sommet de sa tête est de couleur bleutée ce qui explique son nom anglophone (Bluehead sucker). Il est présent dans les états américains du Wyoming, de l'Idaho et de l'Utah[1]. Il est par exemple présent dans la rivière Snake[1] et dans le parc national de Grand Teton[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catostomus discobolus est un poisson d'environ 40 centimètres. Le sommet de sa tête est de couleur bleutée ce qui explique son nom anglophone (Bluehead sucker). Il est présent dans les états américains du Wyoming, de l'Idaho et de l'Utah. Il est par exemple présent dans la rivière Snake et dans le parc national de Grand Teton.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Catostomus discobolus discobolus, Cope, 1871;
 Catostomus discobolus jarrovii, Cope, 1874.</t>
